--- a/uploads/node.xlsx
+++ b/uploads/node.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -32,33 +32,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>c@gmail.com</t>
-  </si>
-  <si>
-    <t>d@gmail.com</t>
-  </si>
-  <si>
-    <t>e@gmail.com</t>
-  </si>
-  <si>
-    <t>f@gmail.com</t>
-  </si>
-  <si>
-    <t>g@gmail.com</t>
-  </si>
-  <si>
-    <t>h@gmail.com</t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -81,6 +54,39 @@
   </si>
   <si>
     <t>h8</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>dsada</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>vxc</t>
+  </si>
+  <si>
+    <t>rewr</t>
+  </si>
+  <si>
+    <t>a111</t>
+  </si>
+  <si>
+    <t>d333</t>
+  </si>
+  <si>
+    <t>g444</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>ghhha</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,24 +525,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="a@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C9" r:id="rId9"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>